--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H2">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J2">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P2">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q2">
-        <v>65.44329339900256</v>
+        <v>56.11019236746233</v>
       </c>
       <c r="R2">
-        <v>588.9896405910231</v>
+        <v>504.991731307161</v>
       </c>
       <c r="S2">
-        <v>0.5982747870243146</v>
+        <v>0.5453850360648378</v>
       </c>
       <c r="T2">
-        <v>0.5982747870243147</v>
+        <v>0.5453850360648377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.31211433333333</v>
+        <v>8.841467</v>
       </c>
       <c r="H3">
-        <v>30.936343</v>
+        <v>26.524401</v>
       </c>
       <c r="I3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060068</v>
       </c>
       <c r="J3">
-        <v>0.633340936097251</v>
+        <v>0.5917001192060067</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N3">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P3">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q3">
-        <v>3.835769669598444</v>
+        <v>4.764978964800666</v>
       </c>
       <c r="R3">
-        <v>34.521927026386</v>
+        <v>42.884810683206</v>
       </c>
       <c r="S3">
-        <v>0.03506614907293635</v>
+        <v>0.04631508314116901</v>
       </c>
       <c r="T3">
-        <v>0.03506614907293635</v>
+        <v>0.04631508314116901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>12.310314</v>
       </c>
       <c r="I4">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J4">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P4">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q4">
         <v>26.04145845343933</v>
@@ -694,10 +694,10 @@
         <v>234.373126080954</v>
       </c>
       <c r="S4">
-        <v>0.2380679088847844</v>
+        <v>0.2531201758282676</v>
       </c>
       <c r="T4">
-        <v>0.2380679088847844</v>
+        <v>0.2531201758282676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="J5">
-        <v>0.2520215719230645</v>
+        <v>0.2746155987184545</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N5">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P5">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q5">
-        <v>1.526344890358666</v>
+        <v>2.211487726342666</v>
       </c>
       <c r="R5">
-        <v>13.737104013228</v>
+        <v>19.903389537084</v>
       </c>
       <c r="S5">
-        <v>0.0139536630382801</v>
+        <v>0.02149542289018692</v>
       </c>
       <c r="T5">
-        <v>0.0139536630382801</v>
+        <v>0.02149542289018692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H6">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I6">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J6">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>19.038761</v>
       </c>
       <c r="O6">
-        <v>0.9446330608455225</v>
+        <v>0.921725411846598</v>
       </c>
       <c r="P6">
-        <v>0.9446330608455226</v>
+        <v>0.9217254118465981</v>
       </c>
       <c r="Q6">
-        <v>11.84552362647267</v>
+        <v>12.67711555277378</v>
       </c>
       <c r="R6">
-        <v>106.609712638254</v>
+        <v>114.094039974964</v>
       </c>
       <c r="S6">
-        <v>0.1082903649364235</v>
+        <v>0.1232201999534926</v>
       </c>
       <c r="T6">
-        <v>0.1082903649364235</v>
+        <v>0.1232201999534926</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.866538</v>
+        <v>1.997574666666667</v>
       </c>
       <c r="H7">
-        <v>5.599614</v>
+        <v>5.992724</v>
       </c>
       <c r="I7">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="J7">
-        <v>0.1146374919796846</v>
+        <v>0.1336842820755386</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3719673333333333</v>
+        <v>0.5389353333333333</v>
       </c>
       <c r="N7">
-        <v>1.115902</v>
+        <v>1.616806</v>
       </c>
       <c r="O7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="P7">
-        <v>0.05536693915447755</v>
+        <v>0.07827458815340194</v>
       </c>
       <c r="Q7">
-        <v>0.6942911624253333</v>
+        <v>1.076563568838222</v>
       </c>
       <c r="R7">
-        <v>6.248620461828</v>
+        <v>9.689072119543999</v>
       </c>
       <c r="S7">
-        <v>0.006347127043261105</v>
+        <v>0.010464082122046</v>
       </c>
       <c r="T7">
-        <v>0.006347127043261104</v>
+        <v>0.010464082122046</v>
       </c>
     </row>
   </sheetData>
